--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\185251\Desktop\se-lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BME\Suli\Szoftek\Labor4\se-lab4-20241101T101212Z-001\se-lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C980A5-E5D0-4646-A0DC-30C857FA2495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E838A7-1C6C-4743-87A7-99F34BB44E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B0E6D6F8-BD9C-4812-B591-04CE9AB72592}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B0E6D6F8-BD9C-4812-B591-04CE9AB72592}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>tüzelünk egy torpedót</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>tüzelünk egy torpedót (TORPEDO,SINGLE)</t>
   </si>
   <si>
@@ -98,10 +95,13 @@
     <t>a GT4500 torpedóival primary store-ból lő és a SECONDARY store-bol lő</t>
   </si>
   <si>
-    <t>a GT4500 torpedóival egyszer lő lő de 100% a hiba arány akkor nem probál meg a másikkal lni</t>
-  </si>
-  <si>
     <t>probálunk tüzelni 1 torpedot</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>a GT4500 torpedóival egyszer lő de 100% a hiba arány akkor nem probál meg a másikkal lőni</t>
   </si>
 </sst>
 </file>
@@ -173,7 +173,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -507,17 +507,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2293EB-AE1B-4CBC-A9D9-992A1D405082}">
   <dimension ref="A2:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="128.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
+    <col min="2" max="2" width="128.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,50 +525,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -576,140 +576,140 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
